--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="N2">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="O2">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="P2">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="Q2">
-        <v>5.769737219333333</v>
+        <v>0.5482884830974445</v>
       </c>
       <c r="R2">
-        <v>51.92763497399999</v>
+        <v>4.934596347877</v>
       </c>
       <c r="S2">
-        <v>0.004240720832925611</v>
+        <v>0.0006489537180284497</v>
       </c>
       <c r="T2">
-        <v>0.004240720832925611</v>
+        <v>0.0006489537180284495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.151378</v>
       </c>
       <c r="O3">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="P3">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="Q3">
-        <v>0.049212054624</v>
+        <v>0.016885209754</v>
       </c>
       <c r="R3">
-        <v>0.442908491616</v>
+        <v>0.151966887786</v>
       </c>
       <c r="S3">
-        <v>3.61705528937735E-05</v>
+        <v>1.998531792541972E-05</v>
       </c>
       <c r="T3">
-        <v>3.61705528937735E-05</v>
+        <v>1.998531792541972E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>231.078796</v>
       </c>
       <c r="O4">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="P4">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="Q4">
-        <v>5.285850432234667</v>
+        <v>1.813634768116889</v>
       </c>
       <c r="R4">
-        <v>47.57265389011199</v>
+        <v>16.322712913052</v>
       </c>
       <c r="S4">
-        <v>0.00388506706554938</v>
+        <v>0.00214661635653205</v>
       </c>
       <c r="T4">
-        <v>0.003885067065549381</v>
+        <v>0.002146616356532049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="N5">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="O5">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="P5">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="Q5">
-        <v>693.8668682417361</v>
+        <v>192.1738442291895</v>
       </c>
       <c r="R5">
-        <v>6244.801814175626</v>
+        <v>1729.564598062705</v>
       </c>
       <c r="S5">
-        <v>0.5099878160082952</v>
+        <v>0.2274567760676239</v>
       </c>
       <c r="T5">
-        <v>0.5099878160082951</v>
+        <v>0.2274567760676239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.151378</v>
       </c>
       <c r="O6">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="P6">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="Q6">
         <v>5.918226935410001</v>
@@ -818,10 +818,10 @@
         <v>53.26404241869</v>
       </c>
       <c r="S6">
-        <v>0.00434985984714822</v>
+        <v>0.007004807673824251</v>
       </c>
       <c r="T6">
-        <v>0.00434985984714822</v>
+        <v>0.00700480767382425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>231.078796</v>
       </c>
       <c r="O7">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="P7">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="Q7">
         <v>635.674788293509</v>
@@ -880,10 +880,10 @@
         <v>5721.073094641581</v>
       </c>
       <c r="S7">
-        <v>0.467217000567894</v>
+        <v>0.7523840642968687</v>
       </c>
       <c r="T7">
-        <v>0.467217000567894</v>
+        <v>0.7523840642968684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="N8">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="O8">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="P8">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="Q8">
-        <v>7.269372278347221</v>
+        <v>2.013330337277889</v>
       </c>
       <c r="R8">
-        <v>65.42435050512499</v>
+        <v>18.119973035501</v>
       </c>
       <c r="S8">
-        <v>0.005342943238347507</v>
+        <v>0.00238297583895037</v>
       </c>
       <c r="T8">
-        <v>0.005342943238347507</v>
+        <v>0.00238297583895037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.151378</v>
       </c>
       <c r="O9">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="P9">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="Q9">
         <v>0.062002953002</v>
@@ -1004,10 +1004,10 @@
         <v>0.558026577018</v>
       </c>
       <c r="S9">
-        <v>4.557178334178452E-05</v>
+        <v>7.338663517438865E-05</v>
       </c>
       <c r="T9">
-        <v>4.557178334178453E-05</v>
+        <v>7.338663517438865E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>231.078796</v>
       </c>
       <c r="O10">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="P10">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="Q10">
         <v>6.659716576141777</v>
@@ -1066,10 +1066,10 @@
         <v>59.93744918527599</v>
       </c>
       <c r="S10">
-        <v>0.004894850103604491</v>
+        <v>0.007882434095072546</v>
       </c>
       <c r="T10">
-        <v>0.004894850103604492</v>
+        <v>0.007882434095072544</v>
       </c>
     </row>
   </sheetData>
